--- a/natmiOut/OldD7/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H2">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I2">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J2">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25124740905249</v>
+        <v>1.257727</v>
       </c>
       <c r="N2">
-        <v>1.25124740905249</v>
+        <v>3.773181</v>
       </c>
       <c r="O2">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="P2">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="Q2">
-        <v>17.66165241395541</v>
+        <v>26.91091341202434</v>
       </c>
       <c r="R2">
-        <v>17.66165241395541</v>
+        <v>242.1982207082191</v>
       </c>
       <c r="S2">
-        <v>0.02049545670922273</v>
+        <v>0.0262078513498582</v>
       </c>
       <c r="T2">
-        <v>0.02049545670922273</v>
+        <v>0.0262078513498582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H3">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I3">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J3">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03224213136763</v>
+        <v>2.112352666666667</v>
       </c>
       <c r="N3">
-        <v>2.03224213136763</v>
+        <v>6.337058</v>
       </c>
       <c r="O3">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="P3">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="Q3">
-        <v>28.68557719723141</v>
+        <v>45.19688271646023</v>
       </c>
       <c r="R3">
-        <v>28.68557719723141</v>
+        <v>406.7719444481421</v>
       </c>
       <c r="S3">
-        <v>0.03328816533386044</v>
+        <v>0.04401608988793002</v>
       </c>
       <c r="T3">
-        <v>0.03328816533386044</v>
+        <v>0.04401608988793002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>129.025471824535</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H4">
-        <v>129.025471824535</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I4">
-        <v>0.4916288494081959</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J4">
-        <v>0.4916288494081959</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.25124740905249</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N4">
-        <v>1.25124740905249</v>
+        <v>0.274778</v>
       </c>
       <c r="O4">
-        <v>0.381072451624863</v>
+        <v>0.02645908042326748</v>
       </c>
       <c r="P4">
-        <v>0.381072451624863</v>
+        <v>0.02645908042326749</v>
       </c>
       <c r="Q4">
-        <v>161.4427873222245</v>
+        <v>1.959759408713556</v>
       </c>
       <c r="R4">
-        <v>161.4427873222245</v>
+        <v>17.637834678422</v>
       </c>
       <c r="S4">
-        <v>0.1873462109334918</v>
+        <v>0.001908559641907276</v>
       </c>
       <c r="T4">
-        <v>0.1873462109334918</v>
+        <v>0.001908559641907276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>129.025471824535</v>
+        <v>130.868154</v>
       </c>
       <c r="H5">
-        <v>129.025471824535</v>
+        <v>392.604462</v>
       </c>
       <c r="I5">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J5">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.03224213136763</v>
+        <v>1.257727</v>
       </c>
       <c r="N5">
-        <v>2.03224213136763</v>
+        <v>3.773181</v>
       </c>
       <c r="O5">
-        <v>0.6189275483751369</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="P5">
-        <v>0.6189275483751369</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="Q5">
-        <v>262.2109998614071</v>
+        <v>164.596410725958</v>
       </c>
       <c r="R5">
-        <v>262.2109998614071</v>
+        <v>1481.367696533622</v>
       </c>
       <c r="S5">
-        <v>0.304282638474704</v>
+        <v>0.1602962411189899</v>
       </c>
       <c r="T5">
-        <v>0.304282638474704</v>
+        <v>0.1602962411189899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.001530211833</v>
+        <v>130.868154</v>
       </c>
       <c r="H6">
-        <v>65.001530211833</v>
+        <v>392.604462</v>
       </c>
       <c r="I6">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J6">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25124740905249</v>
+        <v>2.112352666666667</v>
       </c>
       <c r="N6">
-        <v>1.25124740905249</v>
+        <v>6.337058</v>
       </c>
       <c r="O6">
-        <v>0.381072451624863</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="P6">
-        <v>0.381072451624863</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="Q6">
-        <v>81.33299626200319</v>
+        <v>276.439694083644</v>
       </c>
       <c r="R6">
-        <v>81.33299626200319</v>
+        <v>2487.957246752796</v>
       </c>
       <c r="S6">
-        <v>0.09438283943364834</v>
+        <v>0.2692175586469411</v>
       </c>
       <c r="T6">
-        <v>0.09438283943364834</v>
+        <v>0.2692175586469411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.001530211833</v>
+        <v>130.868154</v>
       </c>
       <c r="H7">
-        <v>65.001530211833</v>
+        <v>392.604462</v>
       </c>
       <c r="I7">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J7">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.03224213136763</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N7">
-        <v>2.03224213136763</v>
+        <v>0.274778</v>
       </c>
       <c r="O7">
-        <v>0.6189275483751369</v>
+        <v>0.02645908042326748</v>
       </c>
       <c r="P7">
-        <v>0.6189275483751369</v>
+        <v>0.02645908042326749</v>
       </c>
       <c r="Q7">
-        <v>132.0988482998529</v>
+        <v>11.986563206604</v>
       </c>
       <c r="R7">
-        <v>132.0988482998529</v>
+        <v>107.879068859436</v>
       </c>
       <c r="S7">
-        <v>0.1532940499116909</v>
+        <v>0.01167340780688597</v>
       </c>
       <c r="T7">
-        <v>0.1532940499116909</v>
+        <v>0.01167340780688597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.3026367977977</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H8">
-        <v>54.3026367977977</v>
+        <v>225.078575</v>
       </c>
       <c r="I8">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J8">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.25124740905249</v>
+        <v>1.257727</v>
       </c>
       <c r="N8">
-        <v>1.25124740905249</v>
+        <v>3.773181</v>
       </c>
       <c r="O8">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="P8">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="Q8">
-        <v>67.94603359796278</v>
+        <v>94.36246696634166</v>
       </c>
       <c r="R8">
-        <v>67.94603359796278</v>
+        <v>849.2622026970751</v>
       </c>
       <c r="S8">
-        <v>0.07884794454850014</v>
+        <v>0.09189719685080566</v>
       </c>
       <c r="T8">
-        <v>0.07884794454850014</v>
+        <v>0.09189719685080569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.3026367977977</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H9">
-        <v>54.3026367977977</v>
+        <v>225.078575</v>
       </c>
       <c r="I9">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J9">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.03224213136763</v>
+        <v>2.112352666666667</v>
       </c>
       <c r="N9">
-        <v>2.03224213136763</v>
+        <v>6.337058</v>
       </c>
       <c r="O9">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="P9">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="Q9">
-        <v>110.3561063448387</v>
+        <v>158.4817760369278</v>
       </c>
       <c r="R9">
-        <v>110.3561063448387</v>
+        <v>1426.33598433235</v>
       </c>
       <c r="S9">
-        <v>0.1280626946548815</v>
+        <v>0.1543413545443414</v>
       </c>
       <c r="T9">
-        <v>0.1280626946548815</v>
+        <v>0.1543413545443415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>75.02619166666666</v>
+      </c>
+      <c r="H10">
+        <v>225.078575</v>
+      </c>
+      <c r="I10">
+        <v>0.2529308696158396</v>
+      </c>
+      <c r="J10">
+        <v>0.2529308696158397</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.274778</v>
+      </c>
+      <c r="O10">
+        <v>0.02645908042326748</v>
+      </c>
+      <c r="P10">
+        <v>0.02645908042326749</v>
+      </c>
+      <c r="Q10">
+        <v>6.871848964594444</v>
+      </c>
+      <c r="R10">
+        <v>61.84664068135</v>
+      </c>
+      <c r="S10">
+        <v>0.006692318220692482</v>
+      </c>
+      <c r="T10">
+        <v>0.006692318220692484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>69.33645133333333</v>
+      </c>
+      <c r="H11">
+        <v>208.009354</v>
+      </c>
+      <c r="I11">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="J11">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.257727</v>
+      </c>
+      <c r="N11">
+        <v>3.773181</v>
+      </c>
+      <c r="O11">
+        <v>0.3633293041311343</v>
+      </c>
+      <c r="P11">
+        <v>0.3633293041311343</v>
+      </c>
+      <c r="Q11">
+        <v>87.20632692611933</v>
+      </c>
+      <c r="R11">
+        <v>784.856942335074</v>
+      </c>
+      <c r="S11">
+        <v>0.08492801481148049</v>
+      </c>
+      <c r="T11">
+        <v>0.0849280148114805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>69.33645133333333</v>
+      </c>
+      <c r="H12">
+        <v>208.009354</v>
+      </c>
+      <c r="I12">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="J12">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.112352666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.337058</v>
+      </c>
+      <c r="O12">
+        <v>0.6102116154455982</v>
+      </c>
+      <c r="P12">
+        <v>0.6102116154455982</v>
+      </c>
+      <c r="Q12">
+        <v>146.4630378711702</v>
+      </c>
+      <c r="R12">
+        <v>1318.167340840532</v>
+      </c>
+      <c r="S12">
+        <v>0.1426366123663855</v>
+      </c>
+      <c r="T12">
+        <v>0.1426366123663856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>69.33645133333333</v>
+      </c>
+      <c r="H13">
+        <v>208.009354</v>
+      </c>
+      <c r="I13">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="J13">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.274778</v>
+      </c>
+      <c r="O13">
+        <v>0.02645908042326748</v>
+      </c>
+      <c r="P13">
+        <v>0.02645908042326749</v>
+      </c>
+      <c r="Q13">
+        <v>6.350710474823555</v>
+      </c>
+      <c r="R13">
+        <v>57.156394273412</v>
+      </c>
+      <c r="S13">
+        <v>0.006184794753781753</v>
+      </c>
+      <c r="T13">
+        <v>0.006184794753781754</v>
       </c>
     </row>
   </sheetData>
